--- a/English/Memorize Vocabulary/職缺整理.xlsx
+++ b/English/Memorize Vocabulary/職缺整理.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\使用者\Joseph Chen\Desktop\Books\English\Memorize Vocabulary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack8\Desktop\Books\English\Memorize Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3D5565-4D81-4132-8B53-FE0C60595EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C651751C-850B-4025-94E7-8D7C3E8E581B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23970" yWindow="2107" windowWidth="20040" windowHeight="12766" xr2:uid="{B9294488-B11E-4830-90D0-2383F9698A66}"/>
+    <workbookView xWindow="5004" yWindow="0" windowWidth="17280" windowHeight="10356" xr2:uid="{B9294488-B11E-4830-90D0-2383F9698A66}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,50 +46,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>橘子</t>
+  </si>
+  <si>
+    <t>蝦皮</t>
+  </si>
+  <si>
+    <t>訊連</t>
+  </si>
+  <si>
+    <t>玩美</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>華碩</t>
+  </si>
+  <si>
+    <t>聯發科</t>
+  </si>
+  <si>
+    <t>趨勢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVIDIA_英屬維京群島商輝達維京股份有限公司台灣分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVIDIA_新加坡商輝達開發有限公司台灣分公司</t>
+  </si>
+  <si>
+    <t>感覺沒救，幾乎全部都是 C 不然就是 C++，然後 ARM 跟組合語言相關的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.104.com.tw/job/7v6vp?jobsource=company_job</t>
+  </si>
+  <si>
+    <t>這可能是看起來感覺唯一有機會的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.104.com.tw/job/72m5h?jobsource=company_job</t>
+  </si>
+  <si>
     <t>synology</t>
-  </si>
-  <si>
-    <t>橘子</t>
-  </si>
-  <si>
-    <t>蝦皮</t>
-  </si>
-  <si>
-    <t>訊連</t>
-  </si>
-  <si>
-    <t>玩美</t>
-  </si>
-  <si>
-    <t>NVIDIA</t>
-  </si>
-  <si>
-    <t>華碩</t>
-  </si>
-  <si>
-    <t>聯發科</t>
-  </si>
-  <si>
-    <t>趨勢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVIDIA_英屬維京群島商輝達維京股份有限公司台灣分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NVIDIA_新加坡商輝達開發有限公司台灣分公司</t>
-  </si>
-  <si>
-    <t>感覺沒救，幾乎全部都是 C 不然就是 C++，然後 ARM 跟組合語言相關的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.104.com.tw/job/7v6vp?jobsource=company_job</t>
-  </si>
-  <si>
-    <t>這可能是看起來感覺唯一有機會的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.104.com.tw/job/6zs6p?jobsource=company_job</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.104.com.tw/job/7nyzk?jobsource=company_job</t>
+  </si>
+  <si>
+    <t>https://www.104.com.tw/job/7vmtz?jobsource=company_job</t>
   </si>
 </sst>
 </file>
@@ -473,15 +490,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482539E7-1C3E-4505-9A91-5D50FE15A40F}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,68 +506,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
+      <c r="B15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
